--- a/UserStory.xlsx
+++ b/UserStory.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="152">
   <si>
     <t>User story</t>
   </si>
@@ -469,6 +469,18 @@
   </si>
   <si>
     <t>IsDefault</t>
+  </si>
+  <si>
+    <t>Configurations (AppConfig)</t>
+  </si>
+  <si>
+    <t>ProductInCategory</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -492,12 +504,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -512,9 +530,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,15 +1066,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1068,17 +1087,20 @@
       <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="T1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1097,11 +1119,14 @@
       <c r="Q2" t="s">
         <v>86</v>
       </c>
-      <c r="U2" t="s">
+      <c r="T2" t="s">
+        <v>116</v>
+      </c>
+      <c r="W2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1120,11 +1145,14 @@
       <c r="Q3" t="s">
         <v>116</v>
       </c>
-      <c r="U3" t="s">
+      <c r="T3" t="s">
+        <v>150</v>
+      </c>
+      <c r="W3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1143,11 +1171,14 @@
       <c r="Q4" t="s">
         <v>94</v>
       </c>
-      <c r="U4" t="s">
+      <c r="T4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1163,11 +1194,14 @@
       <c r="Q5" t="s">
         <v>95</v>
       </c>
-      <c r="U5" t="s">
+      <c r="T5" t="s">
+        <v>151</v>
+      </c>
+      <c r="W5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1183,11 +1217,11 @@
       <c r="Q6" t="s">
         <v>108</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1203,11 +1237,11 @@
       <c r="Q7" t="s">
         <v>110</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -1224,7 +1258,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>84</v>
       </c>
@@ -1235,66 +1269,66 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="W10" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
         <v>86</v>
       </c>
-      <c r="U12" t="s">
+      <c r="W12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>94</v>
       </c>
-      <c r="U13" t="s">
+      <c r="W13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>95</v>
       </c>
-      <c r="U14" t="s">
+      <c r="W14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U15" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U16" t="s">
+      <c r="W16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
         <v>96</v>
       </c>
@@ -1305,71 +1339,68 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
         <v>97</v>
       </c>
       <c r="N18" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="Q18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:23" x14ac:dyDescent="0.25">
       <c r="N19" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Q19" t="s">
-        <v>95</v>
-      </c>
-      <c r="U19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K20" s="1" t="s">
         <v>71</v>
       </c>
       <c r="N20" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="Q20" t="s">
         <v>108</v>
       </c>
-      <c r="U20" t="s">
+      <c r="W20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
         <v>97</v>
       </c>
       <c r="N21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q21" t="s">
         <v>110</v>
       </c>
-      <c r="U21" t="s">
+      <c r="W21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
         <v>98</v>
       </c>
-      <c r="N22" t="s">
-        <v>102</v>
-      </c>
       <c r="Q22" t="s">
         <v>111</v>
       </c>
-      <c r="U22" t="s">
+      <c r="W22" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
         <v>99</v>
       </c>
@@ -1377,20 +1408,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:23" x14ac:dyDescent="0.25">
       <c r="Q24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K26" t="s">
         <v>86</v>
       </c>
@@ -1398,7 +1429,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>94</v>
       </c>
@@ -1409,7 +1440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="11:23" x14ac:dyDescent="0.25">
       <c r="N28" t="s">
         <v>117</v>
       </c>
@@ -1417,7 +1448,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1428,7 +1459,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
         <v>86</v>
       </c>
@@ -1436,7 +1467,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
         <v>94</v>
       </c>
@@ -1444,7 +1475,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
         <v>100</v>
       </c>
@@ -1497,8 +1528,8 @@
       </c>
     </row>
     <row r="37" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K37" s="1" t="s">
-        <v>73</v>
+      <c r="K37" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="N37" t="s">
         <v>120</v>
@@ -1532,7 +1563,7 @@
       </c>
     </row>
     <row r="42" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="N42" s="1" t="s">
+      <c r="N42" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1608,5 +1639,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>